--- a/biology/Botanique/Dicentra_cucullaria/Dicentra_cucullaria.xlsx
+++ b/biology/Botanique/Dicentra_cucullaria/Dicentra_cucullaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dicentre à capuchon, Dicentre capuchon-jaune
-Dicentra cucullaria, le Dicentre à capuchon ou Dicentre capuchon-jaune est une espèce de plantes vivaces de la famille des Papavaracées, originaire du sud-est du Canada et du nord-est des États-Unis[1].
+Dicentra cucullaria, le Dicentre à capuchon ou Dicentre capuchon-jaune est une espèce de plantes vivaces de la famille des Papavaracées, originaire du sud-est du Canada et du nord-est des États-Unis.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Dicentre à capuchon présente  des feuilles finement disséquées et des fleurs blanches à doubles éperons écartés semblable à une coiffe. C'est un éphémère printanier, qui s'épanouit et fleurit au printemps et entre en dormance en été[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Dicentre à capuchon présente  des feuilles finement disséquées et des fleurs blanches à doubles éperons écartés semblable à une coiffe. C'est un éphémère printanier, qui s'épanouit et fleurit au printemps et entre en dormance en été.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante de sous-bois à texture délicate, au feuillage basilaire, glabre, glauque et finement découpé. La hampe florale atteint 15 à 25 cm de hauteur, formant une grappe libre de fleurs retombantes. Chaque fleur est blanche et jaune et porte deux éperons divergents[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante de sous-bois à texture délicate, au feuillage basilaire, glabre, glauque et finement découpé. La hampe florale atteint 15 à 25 cm de hauteur, formant une grappe libre de fleurs retombantes. Chaque fleur est blanche et jaune et porte deux éperons divergents.
 Au Québec, la floraison se manifeste à la mi-mai.
 </t>
         </is>
@@ -575,9 +591,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le dicentre à capuchon pousse dans les sols des sous-bois humides et riche en humus[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le dicentre à capuchon pousse dans les sols des sous-bois humides et riche en humus.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante a été introduite en Europe.
 </t>
@@ -637,9 +657,11 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante produit des alcaloïdes dont la bicuculline (ou cucullarine), un neurotoxique et convulsivant puissant[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante produit des alcaloïdes dont la bicuculline (ou cucullarine), un neurotoxique et convulsivant puissant.
 </t>
         </is>
       </c>
